--- a/biology/Zoologie/Galeodea_echinophora/Galeodea_echinophora.xlsx
+++ b/biology/Zoologie/Galeodea_echinophora/Galeodea_echinophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galeodea echinophora ou Casque épineux est une espèce de mollusques gastéropodes appartenant à la famille des Cassidae. Ce coquillage est très commun dans la région lusitanienne au point qu'on le trouve sur les étals des poissonniers du Portugal.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition : Méditerranée et Atlantique.
 Longueur : de 6 à 10 cm de haut.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Arianna Fulvo et Roberto Nistri (2005). 350 coquillages du monde entier. Delachaux et Niestlé (Paris) : 256 p.  (ISBN 2-603-01374-2)
 Giorgio Gabbi avec illustrations de Monica Falcone, Coquillages : étonnants habitants des mers , Éditions White Star, 2008, 168 p.  (ISBN 978-88-6112-131-7),  Coquillages du monde : Galeodea echinophora - Casque épineux page 136</t>
